--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/modulat/12100_BSM_0a8c3e34-d359-48ab-86af-17898c50a007.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/modulat/12100_BSM_0a8c3e34-d359-48ab-86af-17898c50a007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF2833F-3F4F-FE47-AE40-D7F3638E5A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6A42E5-539F-2E4D-BA9A-6A99B5CC3A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-43940" yWindow="2280" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Business Service Management</t>
-  </si>
-  <si>
     <t>业务管理</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>zero.bsm</t>
+  </si>
+  <si>
+    <t>Business Management</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -831,29 +831,29 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F5" s="5">
         <v>12100</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
